--- a/biology/Botanique/Aristoloche_clématite/Aristoloche_clématite.xlsx
+++ b/biology/Botanique/Aristoloche_clématite/Aristoloche_clématite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aristoloche_cl%C3%A9matite</t>
+          <t>Aristoloche_clématite</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aristolochia clematitis
 L'Aristoloche clématite (Aristolochia clematitis) est une plante herbacée de la famille des Aristolochiaceae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aristoloche_cl%C3%A9matite</t>
+          <t>Aristoloche_clématite</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante d'origine méditerranéenne préférant les sols calcaires et humides (lisière, bosquet). Aujourd’hui, on la rencontre également dans toute l'Europe centrale.
 C'est une plante herbacée (20 à 80 cm) à tige dressée et anguleuse. Les feuilles sont larges et cordiformes (en forme de cœur). Le fruit de 5 cm de diamètre est une petite capsule en forme de poire. L'Aristoloche clématite possède également des stolons souterrains.
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aristoloche_cl%C3%A9matite</t>
+          <t>Aristoloche_clématite</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">organes reproducteurs :
 Type d'inflorescence : glomérules
@@ -576,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aristoloche_cl%C3%A9matite</t>
+          <t>Aristoloche_clématite</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -594,7 +610,9 @@
           <t>Statut, menaces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce n'est pas considérée comme menacée. Elle est classée pour la France en préoccupation mineure (LC) par l'UICN.
 </t>
@@ -607,7 +625,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Aristoloche_cl%C3%A9matite</t>
+          <t>Aristoloche_clématite</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -625,9 +643,11 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Aristoloche clématite possède de l'acide aristolochique au niveau de ses parties souterraines. Cette molécule est toxique pour l'homme avec de multiples conséquences. En particulier, une exposition à l'acide aristolochique peut entraîner l'apparition d'une insuffisance rénale chronique terminale, comme cela a été le cas en Belgique, chez des femmes prenant des capsules pour maigrir contenant des herbes chinoises contaminées[2]. L'acide aristolochique a été proposé comme cause de la néphropathie endémique des Balkans[3]. L'exposition se ferait alors par la consommation de farine de blé, contaminée par des graines d'aristoloche clématite lors de la récolte.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Aristoloche clématite possède de l'acide aristolochique au niveau de ses parties souterraines. Cette molécule est toxique pour l'homme avec de multiples conséquences. En particulier, une exposition à l'acide aristolochique peut entraîner l'apparition d'une insuffisance rénale chronique terminale, comme cela a été le cas en Belgique, chez des femmes prenant des capsules pour maigrir contenant des herbes chinoises contaminées. L'acide aristolochique a été proposé comme cause de la néphropathie endémique des Balkans. L'exposition se ferait alors par la consommation de farine de blé, contaminée par des graines d'aristoloche clématite lors de la récolte.
 </t>
         </is>
       </c>
@@ -638,7 +658,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Aristoloche_cl%C3%A9matite</t>
+          <t>Aristoloche_clématite</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -656,11 +676,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aristoloche est utilisée pour fixer les buttes.
-Les feuilles et les souches sont utilisées en médecine pour traiter l'arthrite, la goutte et les rhumatismes[réf. nécessaire]. Toutefois l'acide aristolochique est cancérigène pour les humains[4].
-La plante séchée servait autrefois de répulsif pour les puces[5].
+Les feuilles et les souches sont utilisées en médecine pour traiter l'arthrite, la goutte et les rhumatismes[réf. nécessaire]. Toutefois l'acide aristolochique est cancérigène pour les humains.
+La plante séchée servait autrefois de répulsif pour les puces.
 </t>
         </is>
       </c>
